--- a/CompanyAccounting.ViewModel/ReportTemplates/ListOfEmployeesTemplate.xlsx
+++ b/CompanyAccounting.ViewModel/ReportTemplates/ListOfEmployeesTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Компания</t>
   </si>
@@ -47,13 +47,19 @@
   </si>
   <si>
     <t>#Main#Age</t>
+  </si>
+  <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t>#DateCreation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,19 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +456,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,27 +469,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -493,7 +513,12 @@
     <row r="6" spans="2:6" ht="17.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2"/>
